--- a/medicine/Psychotrope/Roter_Veltliner/Roter_Veltliner.xlsx
+++ b/medicine/Psychotrope/Roter_Veltliner/Roter_Veltliner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Roter Veltliner est un cépage de vigne blanc que l’on ne trouve qu’en Autriche. En dépit de son nom, il n’a aucun lien avec le Grüner Veltliner. Il est également nommé Roter Muskateller et Roter Reifler. Ce cépage se retrouve dans quatre croisements :
